--- a/module_openpyxl/works/target_output.xlsx
+++ b/module_openpyxl/works/target_output.xlsx
@@ -1,35 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>CELL</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>PROPERTY (USD)</t>
+  </si>
+  <si>
+    <t>John F Kennedy</t>
+  </si>
+  <si>
+    <t>The Address where he/she is living</t>
+  </si>
+  <si>
+    <t>MIDAS NFX non-linear Analysys &amp; Design Tool</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>FORMULA</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,15 +128,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -132,7 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -167,7 +250,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -343,310 +425,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>John F Kennedy</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>The Address where he/she is living</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PROPERTY (USD)</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>123456</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MIDAS NFX non-linear Analysys &amp; Design Tool</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>6789</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>1011</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>12131415</v>
       </c>
     </row>
-    <row r="6">
-      <c r="C6" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>161718</v>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>1920</v>
       </c>
     </row>
-    <row r="8">
-      <c r="C8" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
         <v>12345</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SUM</t>
-        </is>
-      </c>
-      <c r="C9">
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
         <f>SUM(C3:C8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>AVERAGE</t>
-        </is>
-      </c>
-      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
         <f>AVERAGE(C3:C8)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>John F Kennedy</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>The Address where he/she is living</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PROPERTY (USD)</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MIDAS NFX non-linear Analysys &amp; Design Tool</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" t="n">
-        <v>6789</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="n">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="n">
-        <v>12131415</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="n">
-        <v>161718</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="n">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="n">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SUM</t>
-        </is>
-      </c>
-      <c r="C9">
-        <f>SUM(C3:C8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>AVERAGE</t>
-        </is>
-      </c>
-      <c r="C10">
-        <f>AVERAGE(C3:C8)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>John F Kennedy</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>The Address where he/she is living</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PROPERTY (USD)</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MIDAS NFX non-linear Analysys &amp; Design Tool</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" t="n">
-        <v>6789</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="n">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="n">
-        <v>12131415</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="n">
-        <v>161718</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="n">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="n">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SUM</t>
-        </is>
-      </c>
-      <c r="C9">
-        <f>SUM(C3:C8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>AVERAGE</t>
-        </is>
-      </c>
-      <c r="C10">
-        <f>AVERAGE(C3:C8)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>